--- a/Project_BDSHOP.xlsx
+++ b/Project_BDSHOP.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SQA_IT Training BD\Manual testing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Manual-Testing-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" tabRatio="656" firstSheet="3" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" tabRatio="656" firstSheet="4" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Test Scenarios" sheetId="4" r:id="rId1"/>
@@ -21,9 +21,10 @@
     <sheet name="Shopping_cart" sheetId="10" r:id="rId7"/>
     <sheet name="Change_Password" sheetId="11" r:id="rId8"/>
     <sheet name="WishList" sheetId="13" r:id="rId9"/>
-    <sheet name="Report" sheetId="2" r:id="rId10"/>
-    <sheet name="Bug Reports" sheetId="5" r:id="rId11"/>
-    <sheet name="Mind Map" sheetId="12" r:id="rId12"/>
+    <sheet name="Test Metrics" sheetId="14" r:id="rId10"/>
+    <sheet name="Report" sheetId="2" r:id="rId11"/>
+    <sheet name="Bug Reports" sheetId="5" r:id="rId12"/>
+    <sheet name="Mind Map" sheetId="12" r:id="rId13"/>
   </sheets>
   <definedNames>
     <definedName name="A1B1">Register!$A$1:$C$1</definedName>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1661" uniqueCount="875">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1699" uniqueCount="906">
   <si>
     <t xml:space="preserve">Fail </t>
   </si>
@@ -3237,12 +3238,105 @@
 4. Hover on any product, then change the quantity of that product in negative numbers and then click on the add to cart
  </t>
   </si>
+  <si>
+    <t>Test Metrics</t>
+  </si>
+  <si>
+    <t>#SL</t>
+  </si>
+  <si>
+    <t>Metrics</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Result (%)</t>
+  </si>
+  <si>
+    <t>Percentage of Test Cases Executed</t>
+  </si>
+  <si>
+    <t>(No. of Test Cases Executed / Total no. of Test Cases Written) * 100</t>
+  </si>
+  <si>
+    <t>Percentage of Test Cases Not Executed</t>
+  </si>
+  <si>
+    <t>(No. of Test Cases not Executed / Total no. of Test Cases Written) * 100</t>
+  </si>
+  <si>
+    <t>Percentage of Test Cases Passed</t>
+  </si>
+  <si>
+    <t>(No. of Test Cases Passed / Total no. of Test Cases Executed) * 100</t>
+  </si>
+  <si>
+    <t>Percentage of Test Cases Failed</t>
+  </si>
+  <si>
+    <t>(No. of Test Cases Failed / Total no. of Test Cases Executed) * 100</t>
+  </si>
+  <si>
+    <t>Percentage of Test Cases Blocked</t>
+  </si>
+  <si>
+    <t>(No. of Test Cases Blocked / Total no. of Test Cases Executed) * 100</t>
+  </si>
+  <si>
+    <t>Defect Density</t>
+  </si>
+  <si>
+    <t>No. of Defects found / Size (No. of Requirements)</t>
+  </si>
+  <si>
+    <t>Defect Removal Efficiency (DRE)</t>
+  </si>
+  <si>
+    <t>(Fixed Defects / (Fixed Defects + Missed Defects)) * 100</t>
+  </si>
+  <si>
+    <t>Defect Leakage</t>
+  </si>
+  <si>
+    <t>(No. of Defects found in UAT/ No. of Defects found in Testing) * 100</t>
+  </si>
+  <si>
+    <t>Defect Rejection Ratio</t>
+  </si>
+  <si>
+    <t>(No. of Defects Rejected/ Total no. of Defects Raised) * 100</t>
+  </si>
+  <si>
+    <t>Defect Age</t>
+  </si>
+  <si>
+    <t>Fixed date - Reported date</t>
+  </si>
+  <si>
+    <t>Customer Satisfaction</t>
+  </si>
+  <si>
+    <t>No. of complaints per Period of Time</t>
+  </si>
+  <si>
+    <t>(166/166)*100 = 100</t>
+  </si>
+  <si>
+    <t>(0/166)*100 = 0</t>
+  </si>
+  <si>
+    <t>(143/166)*100 = 86.14</t>
+  </si>
+  <si>
+    <t>(23/166)*100 = 13.86</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="28">
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3451,8 +3545,39 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="21">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3564,8 +3689,14 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -3716,8 +3847,98 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="16">
+  <cellStyleXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3734,8 +3955,9 @@
     <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3965,11 +4187,63 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="12" borderId="2" xfId="13" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="31" fillId="9" borderId="12" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="9" borderId="13" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="9" borderId="14" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="9" borderId="15" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="9" borderId="16" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="9" borderId="17" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="18" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="19" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="16">
+  <cellStyles count="17">
     <cellStyle name="40% - Accent1" xfId="15" builtinId="31"/>
     <cellStyle name="40% - Accent3" xfId="7" builtinId="39"/>
     <cellStyle name="40% - Accent4" xfId="8" builtinId="43"/>
+    <cellStyle name="40% - Accent5" xfId="16" builtinId="47"/>
     <cellStyle name="60% - Accent5" xfId="13" builtinId="48"/>
     <cellStyle name="Accent2" xfId="6" builtinId="33"/>
     <cellStyle name="Accent5" xfId="9" builtinId="45"/>
@@ -5637,10 +5911,325 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:H49"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="24.44140625" style="81" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" style="81" customWidth="1"/>
+    <col min="3" max="3" width="35.77734375" style="81" customWidth="1"/>
+    <col min="4" max="4" width="59.33203125" style="81" customWidth="1"/>
+    <col min="5" max="5" width="22.44140625" style="82" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="81"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" ht="15" thickBot="1"/>
+    <row r="3" spans="2:8" ht="13.8" customHeight="1">
+      <c r="B3" s="92" t="s">
+        <v>875</v>
+      </c>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="83"/>
+    </row>
+    <row r="4" spans="2:8" ht="46.2" customHeight="1" thickBot="1">
+      <c r="B4" s="95"/>
+      <c r="C4" s="96"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
+    </row>
+    <row r="5" spans="2:8" ht="44.4" customHeight="1" thickBot="1">
+      <c r="B5" s="98" t="s">
+        <v>876</v>
+      </c>
+      <c r="C5" s="99" t="s">
+        <v>877</v>
+      </c>
+      <c r="D5" s="99" t="s">
+        <v>878</v>
+      </c>
+      <c r="E5" s="99" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" s="84" customFormat="1" ht="28.2" customHeight="1" thickBot="1">
+      <c r="B6" s="85">
+        <v>1</v>
+      </c>
+      <c r="C6" s="86" t="s">
+        <v>880</v>
+      </c>
+      <c r="D6" s="87" t="s">
+        <v>881</v>
+      </c>
+      <c r="E6" s="85" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" s="84" customFormat="1" ht="29.4" customHeight="1" thickBot="1">
+      <c r="B7" s="85">
+        <v>2</v>
+      </c>
+      <c r="C7" s="88" t="s">
+        <v>882</v>
+      </c>
+      <c r="D7" s="89" t="s">
+        <v>883</v>
+      </c>
+      <c r="E7" s="85" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" s="90" customFormat="1" ht="28.2" customHeight="1" thickBot="1">
+      <c r="B8" s="85">
+        <v>3</v>
+      </c>
+      <c r="C8" s="88" t="s">
+        <v>884</v>
+      </c>
+      <c r="D8" s="89" t="s">
+        <v>885</v>
+      </c>
+      <c r="E8" s="85" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" s="90" customFormat="1" ht="29.4" customHeight="1" thickBot="1">
+      <c r="B9" s="85">
+        <v>4</v>
+      </c>
+      <c r="C9" s="88" t="s">
+        <v>886</v>
+      </c>
+      <c r="D9" s="89" t="s">
+        <v>887</v>
+      </c>
+      <c r="E9" s="85" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" s="90" customFormat="1" ht="28.8" customHeight="1" thickBot="1">
+      <c r="B10" s="85">
+        <v>5</v>
+      </c>
+      <c r="C10" s="88" t="s">
+        <v>888</v>
+      </c>
+      <c r="D10" s="89" t="s">
+        <v>889</v>
+      </c>
+      <c r="E10" s="85" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" s="90" customFormat="1" ht="28.2" customHeight="1" thickBot="1">
+      <c r="B11" s="85">
+        <v>6</v>
+      </c>
+      <c r="C11" s="88" t="s">
+        <v>890</v>
+      </c>
+      <c r="D11" s="89" t="s">
+        <v>891</v>
+      </c>
+      <c r="E11" s="85" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" s="90" customFormat="1" ht="29.4" customHeight="1" thickBot="1">
+      <c r="B12" s="85">
+        <v>7</v>
+      </c>
+      <c r="C12" s="88" t="s">
+        <v>892</v>
+      </c>
+      <c r="D12" s="89" t="s">
+        <v>893</v>
+      </c>
+      <c r="E12" s="85" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" s="90" customFormat="1" ht="29.4" customHeight="1" thickBot="1">
+      <c r="B13" s="85">
+        <v>8</v>
+      </c>
+      <c r="C13" s="88" t="s">
+        <v>894</v>
+      </c>
+      <c r="D13" s="89" t="s">
+        <v>895</v>
+      </c>
+      <c r="E13" s="85" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" s="90" customFormat="1" ht="28.8" customHeight="1" thickBot="1">
+      <c r="B14" s="85">
+        <v>9</v>
+      </c>
+      <c r="C14" s="88" t="s">
+        <v>896</v>
+      </c>
+      <c r="D14" s="89" t="s">
+        <v>897</v>
+      </c>
+      <c r="E14" s="85" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" s="90" customFormat="1" ht="28.8" customHeight="1" thickBot="1">
+      <c r="B15" s="85">
+        <v>10</v>
+      </c>
+      <c r="C15" s="88" t="s">
+        <v>898</v>
+      </c>
+      <c r="D15" s="89" t="s">
+        <v>899</v>
+      </c>
+      <c r="E15" s="85" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" s="90" customFormat="1" ht="28.8" customHeight="1" thickBot="1">
+      <c r="B16" s="85">
+        <v>11</v>
+      </c>
+      <c r="C16" s="88" t="s">
+        <v>900</v>
+      </c>
+      <c r="D16" s="89" t="s">
+        <v>901</v>
+      </c>
+      <c r="E16" s="85" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="91"/>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="91"/>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" s="91"/>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" s="91"/>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" s="91"/>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" s="91"/>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" s="91"/>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" s="91"/>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" s="91"/>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" s="91"/>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" s="91"/>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" s="91"/>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" s="91"/>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" s="91"/>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" s="91"/>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" s="91"/>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" s="91"/>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" s="91"/>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" s="91"/>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" s="91"/>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" s="91"/>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" s="91"/>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" s="91"/>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" s="91"/>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" s="91"/>
+    </row>
+    <row r="42" spans="2:2">
+      <c r="B42" s="91"/>
+    </row>
+    <row r="43" spans="2:2">
+      <c r="B43" s="91"/>
+    </row>
+    <row r="44" spans="2:2">
+      <c r="B44" s="91"/>
+    </row>
+    <row r="45" spans="2:2">
+      <c r="B45" s="91"/>
+    </row>
+    <row r="46" spans="2:2">
+      <c r="B46" s="91"/>
+    </row>
+    <row r="47" spans="2:2">
+      <c r="B47" s="91"/>
+    </row>
+    <row r="48" spans="2:2">
+      <c r="B48" s="91"/>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" s="91"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:E4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5831,7 +6420,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L25"/>
   <sheetViews>
@@ -6733,11 +7322,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="U8" sqref="U8"/>
     </sheetView>
   </sheetViews>
